--- a/AEF_files copy/11.syntax.failed/202505141029---Vanuatu Annual Report_for review.syntax_checked.xlsx
+++ b/AEF_files copy/11.syntax.failed/202505141029---Vanuatu Annual Report_for review.syntax_checked.xlsx
@@ -787,6 +787,11 @@
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <t>All fields found.</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <t>Cell content error: The value provided for 'Party' must an ISO 3166 alpha-3 country code.</t>
       </text>
     </comment>
     <comment ref="C5" authorId="0" shapeId="0">
@@ -4532,7 +4537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4780,7 +4785,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Version' must conform to X.Y.</t>
+          <t>Cell content error: The value provided for 'Party' must an ISO 3166 alpha-3 country code.</t>
         </is>
       </c>
     </row>
@@ -4792,7 +4797,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Reported year'' must be a four digit year.</t>
+          <t>Cell content error: The value provided for 'Version' must conform to X.Y.</t>
         </is>
       </c>
     </row>
@@ -4804,7 +4809,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Date of submission' must be of the format 'dd/mm/yyyy'.</t>
+          <t>Cell content error: The value provided for 'Reported year'' must be a four digit year.</t>
         </is>
       </c>
     </row>
@@ -4816,26 +4821,26 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>Cell content error: The value provided for 'Date of submission' must be of the format 'dd/mm/yyyy'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="128" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Cell content error: The value provided for 'Reference to the Article 6 technical expert review report of the initial report' must not be changed.  It is for secretariat use.</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="C31" t="inlineStr">
+    <row r="32">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Table 2 Authorizations</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" s="128" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Date of authorization' must be of the format 'dd/mm/yyyy'.</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4852,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Cooperative approach ID' must start with 'CA' followed by four digits.</t>
+          <t>Cell content error: The value provided for 'Date of authorization' must be of the format 'dd/mm/yyyy'.</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4864,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Version of the authorization' must be a number.</t>
+          <t>Cell content error: The value provided for 'Cooperative approach ID' must start with 'CA' followed by four digits.</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4876,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Authorized quantity' must be a number.</t>
+          <t>Cell content error: The value provided for 'Version of the authorization' must be a number.</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4888,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Metric' must 'GHG' or 'non-GHG'</t>
+          <t>Cell content error: The value provided for 'Authorized quantity' must be a number.</t>
         </is>
       </c>
     </row>
@@ -4895,26 +4900,26 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>Cell content error: The value provided for 'Metric' must 'GHG' or 'non-GHG'</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" s="128" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Cell content error: The value provided for 'Purposes for authorization' must be one of 'NDC', 'OIMP', 'IMP', 'OP', 'NDC and OIMP', 'NDC and IMP', or 'NDC and OP'.</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="C38" t="inlineStr">
+    <row r="39">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Table 3 Actions</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" s="128" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Action date' must be of the format 'dd/mm/yyyy'.</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4931,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Action type' must be one of 'Acquisition', 'Transfer', 'Use', 'Cancellation', 'First transfer'</t>
+          <t>Cell content error: The value provided for 'Action date' must be of the format 'dd/mm/yyyy'.</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4943,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Cooperative approach ID' must start with 'CA' followed by four digits.</t>
+          <t>Cell content error: The value provided for 'Action type' must be one of 'Acquisition', 'Transfer', 'Use', 'Cancellation', 'First transfer'</t>
         </is>
       </c>
     </row>
@@ -4950,7 +4955,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'First transferring participating Party ID' must an ISO 3166 alpha-3 country code.</t>
+          <t>Cell content error: The value provided for 'Cooperative approach ID' must start with 'CA' followed by four digits.</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4967,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Party ITMO registry ID' must be a Party ID followed by two digits</t>
+          <t>Cell content error: The value provided for 'First transferring participating Party ID' must an ISO 3166 alpha-3 country code.</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4979,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'First ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.5.</t>
+          <t>Cell content error: The value provided for 'Party ITMO registry ID' must be a Party ID followed by two digits</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4991,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Last ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.5.</t>
+          <t>Cell content error: The value provided for 'First ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.5.</t>
         </is>
       </c>
     </row>
@@ -4998,26 +5003,26 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>Cell content error: The value provided for 'Last ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.5.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" s="128" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Cell content error: The value provided for 'Metric' must 'GHG' or 'non-GHG'</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="C47" t="inlineStr">
+    <row r="48">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Table 4 Holdings</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="D48" s="128" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Cooperative approach ID' must start with 'CA' followed by four digits.</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5034,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'First transferring participating Party ID' must an ISO 3166 alpha-3 country code.</t>
+          <t>Cell content error: The value provided for 'Cooperative approach ID' must start with 'CA' followed by four digits.</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5046,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Party ITMO registry ID' must be a Party ID followed by two digits</t>
+          <t>Cell content error: The value provided for 'First transferring participating Party ID' must an ISO 3166 alpha-3 country code.</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5058,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'First ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.5.</t>
+          <t>Cell content error: The value provided for 'Party ITMO registry ID' must be a Party ID followed by two digits</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5070,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cell content error: The value provided for 'Last ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.5.</t>
+          <t>Cell content error: The value provided for 'First ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.5.</t>
         </is>
       </c>
     </row>
@@ -5077,26 +5082,26 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>Cell content error: The value provided for 'Last ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.5.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" s="128" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Cell content error: The value provided for 'Vintage' must be a year.</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="C54" t="inlineStr">
+    <row r="55">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Table 5 Auth. entities</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="D55" s="128" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Date of the authorization' must be of the format 'dd/mm/yyyy'</t>
         </is>
       </c>
     </row>
@@ -5108,12 +5113,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>Cell content error: The value provided for 'Date of the authorization' must be of the format 'dd/mm/yyyy'</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" s="128" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Cell content error: The value provided for 'Cooperative approach ID' must start with 'CA' followed by four digits.</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Syntax check found errors.</t>
         </is>
@@ -5135,13 +5152,13 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D28" r:id="rId12"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D29" r:id="rId13"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D30" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D32" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D31" r:id="rId15"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D33" r:id="rId16"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D34" r:id="rId17"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D35" r:id="rId18"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D36" r:id="rId19"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D37" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D39" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D38" r:id="rId21"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D40" r:id="rId22"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D41" r:id="rId23"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D42" r:id="rId24"/>
@@ -5149,22 +5166,23 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D44" r:id="rId26"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D45" r:id="rId27"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D46" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D48" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D47" r:id="rId29"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D49" r:id="rId30"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D50" r:id="rId31"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D51" r:id="rId32"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D52" r:id="rId33"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D53" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D55" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D54" r:id="rId35"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D56" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D57" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -5474,17 +5492,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF40A841-F2C3-4718-8737-C3ECAF0625AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{573C62F9-D39B-4B93-99BA-635D1FABC807}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99BC941-CD72-47C1-912C-6B77904BF305}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D770B263-6AF6-4C32-9079-6CD146599937}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD4A1EF-9186-4A93-A9CA-EE8BBCD7CD27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DB0BCF-EF09-4009-AC56-574A3D7591FF}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FA6FBF-D6FB-4A2F-B088-A0E2C7C3EF52}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA171761-B31A-4707-A836-99F4388E3958}"/>
 </file>